--- a/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.784522267103059</v>
+        <v>-7.193404311276913</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.367969915151344</v>
+        <v>-6.515040531857891</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.642205626070563</v>
+        <v>-5.513880841215776</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.632099659744963</v>
+        <v>-6.770027250024061</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1969553249634306</v>
+        <v>-0.1947615111591999</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2279494017352426</v>
+        <v>-0.2306985536833811</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2041932451501575</v>
+        <v>-0.1986670250238955</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1296818730196959</v>
+        <v>-0.1327135961752102</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.9607210471818</v>
+        <v>12.25201302620442</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.779257178739609</v>
+        <v>8.564062008083535</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.995989776080854</v>
+        <v>11.06116703487997</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.36957967143627</v>
+        <v>8.079728661872092</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4346743250675345</v>
+        <v>0.4625982790783462</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4686180865212529</v>
+        <v>0.4030587254073223</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5304715268073696</v>
+        <v>0.566744246345248</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1990138970309689</v>
+        <v>0.1894600773881658</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.44866562056937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.457790457999858</v>
+        <v>-1.457790457999864</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0379116227882078</v>
@@ -749,7 +749,7 @@
         <v>0.1926365215796441</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.03959140655570993</v>
+        <v>-0.03959140655571008</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.599436345628267</v>
+        <v>-4.757717906963427</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.098970318453915</v>
+        <v>-1.324911629030288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.412333092556843</v>
+        <v>-1.174096411550542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.094925481997793</v>
+        <v>-8.068673415895876</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1597569341404986</v>
+        <v>-0.168064542836696</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.08603327445323623</v>
+        <v>-0.0498328261165731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04485925056870609</v>
+        <v>-0.03709582638245764</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1985593813636125</v>
+        <v>-0.1954683945500227</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.403970552415982</v>
+        <v>7.743716573443672</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.03902244922713</v>
+        <v>10.53901363569134</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.79412250670789</v>
+        <v>12.14073735762667</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.441231163102663</v>
+        <v>5.466915672890456</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3299840750077845</v>
+        <v>0.3542950859118416</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5474713863540048</v>
+        <v>0.5208401509412247</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4745758916794431</v>
+        <v>0.4915730812074643</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1678129019256091</v>
+        <v>0.1683663099529497</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.198937646573812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.291191340816404</v>
+        <v>3.291191340816413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1540159511068517</v>
@@ -849,7 +849,7 @@
         <v>0.09587090560745566</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1418887244187414</v>
+        <v>0.1418887244187418</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.68291616820733</v>
+        <v>-12.74733597579219</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.697163242238874</v>
+        <v>-1.044062535131584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.854869348890491</v>
+        <v>-4.498666993689877</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.172157973550277</v>
+        <v>-2.768121168460729</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3634273161134191</v>
+        <v>-0.3624483217390631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.06003358286698729</v>
+        <v>-0.03855462847515854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1514044453362178</v>
+        <v>-0.1740256384103161</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1168894329627112</v>
+        <v>-0.09849251775069029</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.375770607074038</v>
+        <v>2.521802908459883</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.13448623348822</v>
+        <v>13.54028508260305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.698856904114026</v>
+        <v>8.908861823687845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.444699416181471</v>
+        <v>9.478593007510201</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1304861277780613</v>
+        <v>0.09640257450793435</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6360971087710081</v>
+        <v>0.6446663740910963</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4484501691997277</v>
+        <v>0.4387127721173598</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4954731183133294</v>
+        <v>0.4982034494649925</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.1546987541408029</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.018041718361103</v>
+        <v>-3.018041718361114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.0324346032085924</v>
@@ -949,7 +949,7 @@
         <v>-0.006136694173889464</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.06022539175249531</v>
+        <v>-0.06022539175249553</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-8.405573324550382</v>
+        <v>-9.055398027182388</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-7.171417497773902</v>
+        <v>-6.592053368524269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.137366890132503</v>
+        <v>-6.908413208480201</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-10.9623900091817</v>
+        <v>-11.31486812374833</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2512250367480844</v>
+        <v>-0.2669284912080002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2128291254933676</v>
+        <v>-0.1936119304468443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2509910391885105</v>
+        <v>-0.2405647234564409</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1954905729390486</v>
+        <v>-0.2076797941640877</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.885881515991034</v>
+        <v>6.698841888510461</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.985874007637427</v>
+        <v>8.942012285662969</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.560078995753585</v>
+        <v>6.665393930894085</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.053084340154212</v>
+        <v>5.287934282016867</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2746922170304398</v>
+        <v>0.2671763053523805</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3145681045918111</v>
+        <v>0.3621735050121117</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3024504074014233</v>
+        <v>0.3085955785633489</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1105855324079078</v>
+        <v>0.1191048676558947</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.999552930099668</v>
+        <v>-5.319678913250795</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.625941335825274</v>
+        <v>-3.396820715821951</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.260282231414017</v>
+        <v>-10.35413670707599</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.2899156306673</v>
+        <v>-2.924494050498888</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2142396440474153</v>
+        <v>-0.216977186859639</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1110664709120344</v>
+        <v>-0.1271782648692195</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1135113586644683</v>
+        <v>-0.1371771839918551</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02554108635107396</v>
+        <v>-0.03313682918074186</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.78124656274889</v>
+        <v>12.70746979486782</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.83341809008227</v>
+        <v>14.02479967452346</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.52568141359426</v>
+        <v>12.4217302918398</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.43480673571943</v>
+        <v>7.740761844207074</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6872487770545112</v>
+        <v>0.7516981553946274</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7835679411737834</v>
+        <v>0.7900598954702129</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2097073438481488</v>
+        <v>0.2044638944070903</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1023971147493607</v>
+        <v>0.09492542081650614</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.211645165428362</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.245250330314943</v>
+        <v>2.245250330314954</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.06791374849812162</v>
@@ -1149,7 +1149,7 @@
         <v>0.3506015925484662</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1272195413994609</v>
+        <v>0.1272195413994616</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-11.71899290895471</v>
+        <v>-12.42490146959479</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-12.7860669072906</v>
+        <v>-12.44105099467133</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1588092060696362</v>
+        <v>0.4817723684824684</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.291208713146592</v>
+        <v>-3.665353671266067</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2957024025768942</v>
+        <v>-0.3172472654980784</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3638160866554925</v>
+        <v>-0.3533977620793198</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004441238045416789</v>
+        <v>0.01373553014816158</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1934569860541697</v>
+        <v>-0.1736318777571335</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.905626960244045</v>
+        <v>6.633934076637884</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.303928658452806</v>
+        <v>4.796688379852266</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.07157765988822</v>
+        <v>17.07541399388902</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.985251886836957</v>
+        <v>8.417148041984362</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2319141572377684</v>
+        <v>0.2150898277525524</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1640932660392482</v>
+        <v>0.1690037771548297</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8742683246760203</v>
+        <v>0.8781086689475557</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5743339806346243</v>
+        <v>0.6071142696323999</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>1.756181528790451</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.6555891007277381</v>
+        <v>-0.655589100727727</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.03349719208914187</v>
@@ -1249,7 +1249,7 @@
         <v>0.05417553357661768</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.01420580723178446</v>
+        <v>-0.01420580723178422</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.876756079969587</v>
+        <v>-6.933960765585045</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9692483231166122</v>
+        <v>-0.6532584291101383</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.810919352482837</v>
+        <v>-4.702259682325359</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.151297985552943</v>
+        <v>-6.425661149793937</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2290876471570376</v>
+        <v>-0.2290220610174566</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.03372309779871709</v>
+        <v>-0.02408850431702316</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1357423013360686</v>
+        <v>-0.1321002431296723</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1219457212816437</v>
+        <v>-0.1277410313575938</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.263610239324207</v>
+        <v>4.760856467734725</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.12263726072598</v>
+        <v>9.980043604064253</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.030367329955906</v>
+        <v>8.061870613358115</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.963989583178638</v>
+        <v>4.671735095208109</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2410479379835124</v>
+        <v>0.2079654073264939</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4153144577572492</v>
+        <v>0.4086662962232468</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2761988329538302</v>
+        <v>0.2765425443065521</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.116032379118843</v>
+        <v>0.109703390551625</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-1.011592402142936</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.904477628743132</v>
+        <v>5.904477628743122</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1292091311418458</v>
@@ -1349,7 +1349,7 @@
         <v>-0.01907819180137572</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.09362154807073977</v>
+        <v>0.09362154807073959</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.683720204963562</v>
+        <v>-1.670457033006611</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-10.26322499868766</v>
+        <v>-9.488974819494038</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-7.112738830365958</v>
+        <v>-6.500559366046077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7918215931504541</v>
+        <v>1.245362770653093</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05268515352338256</v>
+        <v>-0.0556577340135089</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2254016881393286</v>
+        <v>-0.2153566098735173</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1253159866238848</v>
+        <v>-0.1163324515207678</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01218135747726162</v>
+        <v>0.01874247215007151</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.243808362310421</v>
+        <v>9.637363784501767</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8932003821418769</v>
+        <v>1.337579568271577</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.511288410599438</v>
+        <v>4.316981106744371</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.28347554142556</v>
+        <v>10.68819136056176</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3410712099742495</v>
+        <v>0.3549389065974163</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02415724495731875</v>
+        <v>0.0341588870808666</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08982867368941208</v>
+        <v>0.08675036386551715</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.169895064873474</v>
+        <v>0.1797654987397825</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         <v>0.06714256642606527</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.03152772196169824</v>
+        <v>0.03152772196169825</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.850397465644256</v>
+        <v>-2.251481011097993</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.8146133076749132</v>
+        <v>-0.9717897505029357</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.07998208674959584</v>
+        <v>-0.3800104945175713</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.013163540611321</v>
+        <v>-0.8292476538588978</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.06415157600126103</v>
+        <v>-0.07417391110204874</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.026377305052016</v>
+        <v>-0.03160944255846217</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.002185537136337797</v>
+        <v>-0.01044125244075886</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.02080718206232818</v>
+        <v>-0.0172635637693951</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.094267838797249</v>
+        <v>2.873342698774781</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.013410446208208</v>
+        <v>3.923490120349544</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.046921784975142</v>
+        <v>4.887429081433221</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.809567725876013</v>
+        <v>3.74112148230611</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1112612824179293</v>
+        <v>0.1040246949864639</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1416014656592068</v>
+        <v>0.1388289388784403</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1511080160102892</v>
+        <v>0.1443274853527011</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.08332746563732985</v>
+        <v>0.0817317146003481</v>
       </c>
     </row>
     <row r="31">
